--- a/data/pca/factorExposure/factorExposure_2009-05-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-05-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.0172894364408655</v>
+        <v>-0.01669720817032846</v>
       </c>
       <c r="C2">
-        <v>0.001854277282730346</v>
+        <v>0.001206237122515595</v>
       </c>
       <c r="D2">
-        <v>0.01001651200633619</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.01004155863560966</v>
+      </c>
+      <c r="E2">
+        <v>-0.002619643546299232</v>
+      </c>
+      <c r="F2">
+        <v>-0.01263246674491833</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.08848631374438613</v>
+        <v>-0.09119171136362796</v>
       </c>
       <c r="C4">
-        <v>0.02026395586172779</v>
+        <v>0.01556471485289299</v>
       </c>
       <c r="D4">
-        <v>0.07930685320707208</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08288605599550508</v>
+      </c>
+      <c r="E4">
+        <v>-0.02717007105667946</v>
+      </c>
+      <c r="F4">
+        <v>0.03340148559290741</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>4.95281061645706e-06</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-4.141794287393752e-05</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>-0.0002412348888125645</v>
+      </c>
+      <c r="E5">
+        <v>-6.907541388444969e-05</v>
+      </c>
+      <c r="F5">
+        <v>-9.168703745946235e-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1543900066869626</v>
+        <v>-0.1623778376396385</v>
       </c>
       <c r="C6">
-        <v>0.03235870467231675</v>
+        <v>0.03097041867734657</v>
       </c>
       <c r="D6">
-        <v>-0.03565449280497394</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02514651401888119</v>
+      </c>
+      <c r="E6">
+        <v>-0.01239182803114614</v>
+      </c>
+      <c r="F6">
+        <v>0.03957487582955056</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.05816011212927856</v>
+        <v>-0.06096717191614943</v>
       </c>
       <c r="C7">
-        <v>0.001932485884075029</v>
+        <v>-0.001357779392653467</v>
       </c>
       <c r="D7">
-        <v>0.04755638839482962</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.0529772166606076</v>
+      </c>
+      <c r="E7">
+        <v>-0.01414055016062286</v>
+      </c>
+      <c r="F7">
+        <v>0.04908213922427821</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06054136655545011</v>
+        <v>-0.05677678145092374</v>
       </c>
       <c r="C8">
-        <v>-0.009732535219907492</v>
+        <v>-0.01165709146867889</v>
       </c>
       <c r="D8">
-        <v>0.02696970010243726</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03051957346283147</v>
+      </c>
+      <c r="E8">
+        <v>-0.01926299108022518</v>
+      </c>
+      <c r="F8">
+        <v>-0.02895992792818217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.06865706458130047</v>
+        <v>-0.07107046497732436</v>
       </c>
       <c r="C9">
-        <v>0.01622180764601069</v>
+        <v>0.01105671732858525</v>
       </c>
       <c r="D9">
-        <v>0.08134307875509694</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08612285098199454</v>
+      </c>
+      <c r="E9">
+        <v>-0.0253639320600401</v>
+      </c>
+      <c r="F9">
+        <v>0.04907316376428178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08624226913321875</v>
+        <v>-0.08724221414373817</v>
       </c>
       <c r="C10">
-        <v>0.0175130552697291</v>
+        <v>0.022478165026198</v>
       </c>
       <c r="D10">
-        <v>-0.1665225299036273</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1593590296050911</v>
+      </c>
+      <c r="E10">
+        <v>0.0328581163232942</v>
+      </c>
+      <c r="F10">
+        <v>-0.06000002847261294</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.08959674073324098</v>
+        <v>-0.08638137100604332</v>
       </c>
       <c r="C11">
-        <v>0.01773609516000037</v>
+        <v>0.01225139365605725</v>
       </c>
       <c r="D11">
-        <v>0.1122475043231058</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1185372555840389</v>
+      </c>
+      <c r="E11">
+        <v>-0.05239410571964204</v>
+      </c>
+      <c r="F11">
+        <v>0.02594857661609009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09702141660802781</v>
+        <v>-0.09099088811646334</v>
       </c>
       <c r="C12">
-        <v>0.01655375685363054</v>
+        <v>0.01017294469900002</v>
       </c>
       <c r="D12">
-        <v>0.1184557326549318</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1337628170926521</v>
+      </c>
+      <c r="E12">
+        <v>-0.05297375556156506</v>
+      </c>
+      <c r="F12">
+        <v>0.03200486272128435</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04468912920803222</v>
+        <v>-0.04401304354341379</v>
       </c>
       <c r="C13">
-        <v>0.007102255609616218</v>
+        <v>0.003283631753534186</v>
       </c>
       <c r="D13">
-        <v>0.04597430312052273</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05405531536155981</v>
+      </c>
+      <c r="E13">
+        <v>-0.000783295526116257</v>
+      </c>
+      <c r="F13">
+        <v>0.004567815090961661</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01988668139534428</v>
+        <v>-0.02351672195594204</v>
       </c>
       <c r="C14">
-        <v>0.01538201949999719</v>
+        <v>0.01412508507312628</v>
       </c>
       <c r="D14">
-        <v>0.0319356778029192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03311555533800579</v>
+      </c>
+      <c r="E14">
+        <v>-0.02220490523959004</v>
+      </c>
+      <c r="F14">
+        <v>0.01206275734205819</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03434273756535181</v>
+        <v>-0.03441595098843229</v>
       </c>
       <c r="C15">
-        <v>0.007939340493864137</v>
+        <v>0.006102327646596203</v>
       </c>
       <c r="D15">
-        <v>0.04614462427291814</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04649425361029799</v>
+      </c>
+      <c r="E15">
+        <v>-0.008699173424853658</v>
+      </c>
+      <c r="F15">
+        <v>0.03007565568223439</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07340451357944193</v>
+        <v>-0.07110542755422035</v>
       </c>
       <c r="C16">
-        <v>0.007666117820055949</v>
+        <v>0.001929750562546844</v>
       </c>
       <c r="D16">
-        <v>0.1156491618991268</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1295444085409458</v>
+      </c>
+      <c r="E16">
+        <v>-0.06493287183942088</v>
+      </c>
+      <c r="F16">
+        <v>0.02942876925977101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.001349677818374175</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.0005424753111382366</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.002230836518779313</v>
+      </c>
+      <c r="E17">
+        <v>-0.002100129812453752</v>
+      </c>
+      <c r="F17">
+        <v>-0.00224961899770654</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.02565743531662776</v>
+        <v>-0.04362868373792258</v>
       </c>
       <c r="C18">
-        <v>-0.001309870981331127</v>
+        <v>-0.001347215018744623</v>
       </c>
       <c r="D18">
-        <v>0.02201575182809435</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01697089627365424</v>
+      </c>
+      <c r="E18">
+        <v>0.003152603959471828</v>
+      </c>
+      <c r="F18">
+        <v>-0.008939224448526698</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06415140661670164</v>
+        <v>-0.06280772913849104</v>
       </c>
       <c r="C20">
-        <v>0.006113879701163673</v>
+        <v>0.002101705566316981</v>
       </c>
       <c r="D20">
-        <v>0.07257997336852637</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07864042538058014</v>
+      </c>
+      <c r="E20">
+        <v>-0.06288583572626193</v>
+      </c>
+      <c r="F20">
+        <v>0.03141138322565892</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04138403464586762</v>
+        <v>-0.04300218759919233</v>
       </c>
       <c r="C21">
-        <v>0.01032671360355533</v>
+        <v>0.007574622626536904</v>
       </c>
       <c r="D21">
-        <v>0.03528849485953437</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03655004542168087</v>
+      </c>
+      <c r="E21">
+        <v>-0.003848001492766394</v>
+      </c>
+      <c r="F21">
+        <v>-0.02387950308217717</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.03972199666603728</v>
+        <v>-0.04172887524695082</v>
       </c>
       <c r="C22">
-        <v>0.001162925446725814</v>
+        <v>0.0008471138680328286</v>
       </c>
       <c r="D22">
-        <v>0.0008247758217674574</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.006671767576590006</v>
+      </c>
+      <c r="E22">
+        <v>-0.03582815394203365</v>
+      </c>
+      <c r="F22">
+        <v>-0.05155755011385617</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.03967641884913679</v>
+        <v>-0.04169771666926161</v>
       </c>
       <c r="C23">
-        <v>0.001148577004305781</v>
+        <v>0.0008352213087774802</v>
       </c>
       <c r="D23">
-        <v>0.000853009865112708</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.006685817722150173</v>
+      </c>
+      <c r="E23">
+        <v>-0.03585769354707784</v>
+      </c>
+      <c r="F23">
+        <v>-0.05161227220671109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08036437060033734</v>
+        <v>-0.07677806990547886</v>
       </c>
       <c r="C24">
-        <v>0.00830094716435021</v>
+        <v>0.002718994699977647</v>
       </c>
       <c r="D24">
-        <v>0.1165241528915182</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1223634819864736</v>
+      </c>
+      <c r="E24">
+        <v>-0.05165897527476117</v>
+      </c>
+      <c r="F24">
+        <v>0.03211513083394654</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08572662297980516</v>
+        <v>-0.08217666908273093</v>
       </c>
       <c r="C25">
-        <v>0.01075365941443043</v>
+        <v>0.005741555154473343</v>
       </c>
       <c r="D25">
-        <v>0.1045105086794994</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1107559488649304</v>
+      </c>
+      <c r="E25">
+        <v>-0.03507307769640788</v>
+      </c>
+      <c r="F25">
+        <v>0.02843943121922199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05779372846324961</v>
+        <v>-0.06109063507101362</v>
       </c>
       <c r="C26">
-        <v>0.01878980342205379</v>
+        <v>0.01529623748118129</v>
       </c>
       <c r="D26">
-        <v>0.03605954666257354</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04635528022680348</v>
+      </c>
+      <c r="E26">
+        <v>-0.03454919689819753</v>
+      </c>
+      <c r="F26">
+        <v>-0.00638397198679111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1364294425293568</v>
+        <v>-0.1453798365339635</v>
       </c>
       <c r="C28">
-        <v>0.01784760852248708</v>
+        <v>0.02541109574560642</v>
       </c>
       <c r="D28">
-        <v>-0.2621196451615191</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2574135946909886</v>
+      </c>
+      <c r="E28">
+        <v>0.0674914154493388</v>
+      </c>
+      <c r="F28">
+        <v>0.00392789210414928</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02586442338743657</v>
+        <v>-0.02853822191923657</v>
       </c>
       <c r="C29">
-        <v>0.01005533830036442</v>
+        <v>0.009213842517472117</v>
       </c>
       <c r="D29">
-        <v>0.02984944701044413</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03050635253618737</v>
+      </c>
+      <c r="E29">
+        <v>-0.01845648903375664</v>
+      </c>
+      <c r="F29">
+        <v>-0.01351281327680668</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.05767864111771658</v>
+        <v>-0.05523949340058652</v>
       </c>
       <c r="C30">
-        <v>0.007904025851101589</v>
+        <v>0.002955934641362614</v>
       </c>
       <c r="D30">
-        <v>0.07850333439508747</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08693976953049687</v>
+      </c>
+      <c r="E30">
+        <v>-0.01430860575183825</v>
+      </c>
+      <c r="F30">
+        <v>0.08173071815159162</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05035044708620501</v>
+        <v>-0.0510341803066664</v>
       </c>
       <c r="C31">
-        <v>0.01791258221078774</v>
+        <v>0.01650517407259906</v>
       </c>
       <c r="D31">
-        <v>0.02230520430414627</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02505820454366812</v>
+      </c>
+      <c r="E31">
+        <v>-0.02995336291061012</v>
+      </c>
+      <c r="F31">
+        <v>-0.001134402780836164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04675538157304823</v>
+        <v>-0.05107370012650539</v>
       </c>
       <c r="C32">
-        <v>0.002392017977608117</v>
+        <v>-0.001077431714820891</v>
       </c>
       <c r="D32">
-        <v>0.028812279889144</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03327914630836364</v>
+      </c>
+      <c r="E32">
+        <v>-0.03508794857066792</v>
+      </c>
+      <c r="F32">
+        <v>0.003090806292506593</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09011735290779788</v>
+        <v>-0.09002283787478138</v>
       </c>
       <c r="C33">
-        <v>0.01445707063527996</v>
+        <v>0.008365348284179258</v>
       </c>
       <c r="D33">
-        <v>0.09115614639856333</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.104753278617704</v>
+      </c>
+      <c r="E33">
+        <v>-0.0496029435273013</v>
+      </c>
+      <c r="F33">
+        <v>0.04441580442396816</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06863063717184684</v>
+        <v>-0.06670059415275903</v>
       </c>
       <c r="C34">
-        <v>0.01617097188686037</v>
+        <v>0.01117280380762866</v>
       </c>
       <c r="D34">
-        <v>0.09844974095887285</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1108875660243503</v>
+      </c>
+      <c r="E34">
+        <v>-0.03970157016057051</v>
+      </c>
+      <c r="F34">
+        <v>0.03672583742779451</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02620152313166386</v>
+        <v>-0.02783497545009403</v>
       </c>
       <c r="C35">
-        <v>0.004474118284974224</v>
+        <v>0.003894216759844992</v>
       </c>
       <c r="D35">
-        <v>0.008242310972084244</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01162190401588923</v>
+      </c>
+      <c r="E35">
+        <v>-0.01617522961171943</v>
+      </c>
+      <c r="F35">
+        <v>5.150328617291858e-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.0246224432734556</v>
+        <v>-0.02863736711124452</v>
       </c>
       <c r="C36">
-        <v>0.008483117195382053</v>
+        <v>0.007356160540846125</v>
       </c>
       <c r="D36">
-        <v>0.03880436862183015</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03997196361899141</v>
+      </c>
+      <c r="E36">
+        <v>-0.02014917807567026</v>
+      </c>
+      <c r="F36">
+        <v>0.01573129056486048</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.00239728140417363</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0007195252141907859</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.00317676230545644</v>
+      </c>
+      <c r="E37">
+        <v>-0.0006368279091961443</v>
+      </c>
+      <c r="F37">
+        <v>-0.001270671614955915</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.109186956812345</v>
+        <v>-0.09840494237644073</v>
       </c>
       <c r="C39">
-        <v>0.02363618899934925</v>
+        <v>0.01695405787092973</v>
       </c>
       <c r="D39">
-        <v>0.1502134507859257</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1526176603782691</v>
+      </c>
+      <c r="E39">
+        <v>-0.06330174380664673</v>
+      </c>
+      <c r="F39">
+        <v>0.02331870719055051</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.03900646498632839</v>
+        <v>-0.04452583019046417</v>
       </c>
       <c r="C40">
-        <v>0.01000193098392269</v>
+        <v>0.008683086040134295</v>
       </c>
       <c r="D40">
-        <v>0.02423244991124981</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03256599948148789</v>
+      </c>
+      <c r="E40">
+        <v>-0.00385057724175961</v>
+      </c>
+      <c r="F40">
+        <v>-0.01687341376540932</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.0251892932850362</v>
+        <v>-0.02743350808708335</v>
       </c>
       <c r="C41">
-        <v>0.007846570681147481</v>
+        <v>0.007116125209646252</v>
       </c>
       <c r="D41">
-        <v>0.007811305408127019</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.009898264134894473</v>
+      </c>
+      <c r="E41">
+        <v>-0.01351856003802363</v>
+      </c>
+      <c r="F41">
+        <v>-0.007241736972503269</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04124849450704828</v>
+        <v>-0.03977463268250268</v>
       </c>
       <c r="C43">
-        <v>0.008537896367942114</v>
+        <v>0.007894318818487438</v>
       </c>
       <c r="D43">
-        <v>0.01817557262277746</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.0200913419050414</v>
+      </c>
+      <c r="E43">
+        <v>-0.02797150629005607</v>
+      </c>
+      <c r="F43">
+        <v>-0.01610276401426957</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.06350733423877487</v>
+        <v>-0.07420282144085796</v>
       </c>
       <c r="C44">
-        <v>0.02341087302188229</v>
+        <v>0.01933993633991766</v>
       </c>
       <c r="D44">
-        <v>0.09287369951468666</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09229004602413408</v>
+      </c>
+      <c r="E44">
+        <v>-0.05808007837526952</v>
+      </c>
+      <c r="F44">
+        <v>0.1715018041171713</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02064603658496757</v>
+        <v>-0.02370692851857135</v>
       </c>
       <c r="C46">
-        <v>0.004402979045264093</v>
+        <v>0.003410900700743431</v>
       </c>
       <c r="D46">
-        <v>0.009330748867721936</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01270420421283226</v>
+      </c>
+      <c r="E46">
+        <v>-0.03026570048059359</v>
+      </c>
+      <c r="F46">
+        <v>-0.005586802201893225</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05392100375229361</v>
+        <v>-0.05326467071729595</v>
       </c>
       <c r="C47">
-        <v>0.006206820049150338</v>
+        <v>0.005052932991348222</v>
       </c>
       <c r="D47">
-        <v>0.007197487683409272</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01087863563428943</v>
+      </c>
+      <c r="E47">
+        <v>-0.02577099190087234</v>
+      </c>
+      <c r="F47">
+        <v>-0.03125885289050262</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04847697318129142</v>
+        <v>-0.05163922495299152</v>
       </c>
       <c r="C48">
-        <v>0.005695732704565698</v>
+        <v>0.002924823697893105</v>
       </c>
       <c r="D48">
-        <v>0.04849651147067996</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05113125954319035</v>
+      </c>
+      <c r="E48">
+        <v>0.002215962631745796</v>
+      </c>
+      <c r="F48">
+        <v>0.01348584784349934</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.1976339311113268</v>
+        <v>-0.2000138219859665</v>
       </c>
       <c r="C49">
-        <v>0.0251866127372072</v>
+        <v>0.02273286180687667</v>
       </c>
       <c r="D49">
-        <v>-0.01239439668922602</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.005351026794819802</v>
+      </c>
+      <c r="E49">
+        <v>-0.02781597689714307</v>
+      </c>
+      <c r="F49">
+        <v>0.05073037131201646</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04917462688324487</v>
+        <v>-0.05171784423427134</v>
       </c>
       <c r="C50">
-        <v>0.01373270178845035</v>
+        <v>0.0123182778075824</v>
       </c>
       <c r="D50">
-        <v>0.02236376586296911</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02502569285886014</v>
+      </c>
+      <c r="E50">
+        <v>-0.03304621455223786</v>
+      </c>
+      <c r="F50">
+        <v>0.00969318892305185</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1544305663907596</v>
+        <v>-0.1472931415531731</v>
       </c>
       <c r="C52">
-        <v>0.02286749940845045</v>
+        <v>0.02036409067890457</v>
       </c>
       <c r="D52">
-        <v>0.04209254974429626</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04436137591401485</v>
+      </c>
+      <c r="E52">
+        <v>-0.02116796665037602</v>
+      </c>
+      <c r="F52">
+        <v>0.04160945931388989</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1747446018230044</v>
+        <v>-0.1684925783108708</v>
       </c>
       <c r="C53">
-        <v>0.0244107899098757</v>
+        <v>0.02374742781541493</v>
       </c>
       <c r="D53">
-        <v>0.006032625016007029</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.007833651830780126</v>
+      </c>
+      <c r="E53">
+        <v>-0.02764740316015751</v>
+      </c>
+      <c r="F53">
+        <v>0.07511869385953267</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01606945530379215</v>
+        <v>-0.01850150439693308</v>
       </c>
       <c r="C54">
-        <v>0.01206471583930428</v>
+        <v>0.01098281396763693</v>
       </c>
       <c r="D54">
-        <v>0.02959306309772313</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.02892788958294515</v>
+      </c>
+      <c r="E54">
+        <v>-0.02074374065236619</v>
+      </c>
+      <c r="F54">
+        <v>-0.002946069892793506</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1182683269307405</v>
+        <v>-0.1160502624900387</v>
       </c>
       <c r="C55">
-        <v>0.02096421399296373</v>
+        <v>0.02054142917203456</v>
       </c>
       <c r="D55">
-        <v>0.003642576947973142</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.009174142850148255</v>
+      </c>
+      <c r="E55">
+        <v>-0.02541684012615378</v>
+      </c>
+      <c r="F55">
+        <v>0.04616372715511596</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1806492453510552</v>
+        <v>-0.175187977091316</v>
       </c>
       <c r="C56">
-        <v>0.02233277177906312</v>
+        <v>0.02187462790009671</v>
       </c>
       <c r="D56">
-        <v>-0.006976598890038798</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.001436918189091219</v>
+      </c>
+      <c r="E56">
+        <v>-0.03075013198780241</v>
+      </c>
+      <c r="F56">
+        <v>0.05507750660717766</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04483552949301414</v>
+        <v>-0.0438577515108799</v>
       </c>
       <c r="C58">
-        <v>0.004496215905301414</v>
+        <v>-0.0002645749324720907</v>
       </c>
       <c r="D58">
-        <v>0.06564944262877966</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07598633289136306</v>
+      </c>
+      <c r="E58">
+        <v>-0.0356976989247878</v>
+      </c>
+      <c r="F58">
+        <v>-0.03492476842440177</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1621795660321657</v>
+        <v>-0.1687054140321786</v>
       </c>
       <c r="C59">
-        <v>0.01949700324524698</v>
+        <v>0.02563170030592208</v>
       </c>
       <c r="D59">
-        <v>-0.2221994383662888</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2167236751148297</v>
+      </c>
+      <c r="E59">
+        <v>0.05225996462688014</v>
+      </c>
+      <c r="F59">
+        <v>-0.04214899375456609</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2379307074567316</v>
+        <v>-0.2297702828628251</v>
       </c>
       <c r="C60">
-        <v>0.006974019006496844</v>
+        <v>0.002946588385875205</v>
       </c>
       <c r="D60">
-        <v>0.03756374664771124</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.0405631808403554</v>
+      </c>
+      <c r="E60">
+        <v>-3.6720895033015e-05</v>
+      </c>
+      <c r="F60">
+        <v>0.006601497553075966</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.08047883071329595</v>
+        <v>-0.0743410442664138</v>
       </c>
       <c r="C61">
-        <v>0.0174057947040666</v>
+        <v>0.01168443412136122</v>
       </c>
       <c r="D61">
-        <v>0.1119865329744596</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1177362046575293</v>
+      </c>
+      <c r="E61">
+        <v>-0.04223665714026392</v>
+      </c>
+      <c r="F61">
+        <v>0.01051628574950912</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.172840536484775</v>
+        <v>-0.1683726532563354</v>
       </c>
       <c r="C62">
-        <v>0.0259855444711113</v>
+        <v>0.02439571161511298</v>
       </c>
       <c r="D62">
-        <v>0.0003846535022739684</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.008219521745859201</v>
+      </c>
+      <c r="E62">
+        <v>-0.03363980908257033</v>
+      </c>
+      <c r="F62">
+        <v>0.04160686844159531</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04218038197086251</v>
+        <v>-0.04626879678375313</v>
       </c>
       <c r="C63">
-        <v>0.006072684017283928</v>
+        <v>0.002694880358712273</v>
       </c>
       <c r="D63">
-        <v>0.04960398580939873</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.06088647135539596</v>
+      </c>
+      <c r="E63">
+        <v>-0.02660117853712906</v>
+      </c>
+      <c r="F63">
+        <v>0.001269645323153456</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1152171979210445</v>
+        <v>-0.1118843210280568</v>
       </c>
       <c r="C64">
-        <v>0.0182426448449585</v>
+        <v>0.0145136452828528</v>
       </c>
       <c r="D64">
-        <v>0.03467587089389221</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04274524411358478</v>
+      </c>
+      <c r="E64">
+        <v>-0.02629050402376256</v>
+      </c>
+      <c r="F64">
+        <v>0.0265242601113529</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1455294446646372</v>
+        <v>-0.1528722081485845</v>
       </c>
       <c r="C65">
-        <v>0.03832468506191455</v>
+        <v>0.03763585003405191</v>
       </c>
       <c r="D65">
-        <v>-0.05742889627581241</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04508295634819023</v>
+      </c>
+      <c r="E65">
+        <v>-0.0061943321684877</v>
+      </c>
+      <c r="F65">
+        <v>0.03682557852279898</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1312328280055626</v>
+        <v>-0.1176276326280206</v>
       </c>
       <c r="C66">
-        <v>0.02209669771952798</v>
+        <v>0.01504434744770843</v>
       </c>
       <c r="D66">
-        <v>0.1334531720354925</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1420811832840536</v>
+      </c>
+      <c r="E66">
+        <v>-0.06653280754048103</v>
+      </c>
+      <c r="F66">
+        <v>0.02863643109663716</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06385477374250498</v>
+        <v>-0.05647197223168583</v>
       </c>
       <c r="C67">
-        <v>0.007087362348133294</v>
+        <v>0.004668717600948073</v>
       </c>
       <c r="D67">
-        <v>0.05547780444405901</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05887535689653198</v>
+      </c>
+      <c r="E67">
+        <v>-0.02482520031330037</v>
+      </c>
+      <c r="F67">
+        <v>-0.03302783347828286</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1106513945409593</v>
+        <v>-0.1197034412976929</v>
       </c>
       <c r="C68">
-        <v>0.02770439586602102</v>
+        <v>0.03594250098072554</v>
       </c>
       <c r="D68">
-        <v>-0.2614983482558674</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2581597505514474</v>
+      </c>
+      <c r="E68">
+        <v>0.08808389068037346</v>
+      </c>
+      <c r="F68">
+        <v>0.0001305629843505219</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03907462606271631</v>
+        <v>-0.03854348906132666</v>
       </c>
       <c r="C69">
-        <v>0.00273866796639824</v>
+        <v>0.001702642582168014</v>
       </c>
       <c r="D69">
-        <v>0.008467706475912192</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.009463012409225096</v>
+      </c>
+      <c r="E69">
+        <v>-0.02836441149866337</v>
+      </c>
+      <c r="F69">
+        <v>-0.0006370015115425435</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06870378127457104</v>
+        <v>-0.06832405104225933</v>
       </c>
       <c r="C70">
-        <v>-0.02329667469527987</v>
+        <v>-0.02567323800916258</v>
       </c>
       <c r="D70">
-        <v>0.02546348538794934</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02970838622238005</v>
+      </c>
+      <c r="E70">
+        <v>0.02109104011595274</v>
+      </c>
+      <c r="F70">
+        <v>-0.1850097290122749</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1290343652166475</v>
+        <v>-0.1398321595290981</v>
       </c>
       <c r="C71">
-        <v>0.03258827516004806</v>
+        <v>0.04082276157574247</v>
       </c>
       <c r="D71">
-        <v>-0.2768890795885465</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.268139557981</v>
+      </c>
+      <c r="E71">
+        <v>0.09866930219303845</v>
+      </c>
+      <c r="F71">
+        <v>0.003817746168981815</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1367911376485809</v>
+        <v>-0.1438289437666321</v>
       </c>
       <c r="C72">
-        <v>0.03022677952374202</v>
+        <v>0.03029658495128162</v>
       </c>
       <c r="D72">
-        <v>0.0001064739761975326</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.002545830551060049</v>
+      </c>
+      <c r="E72">
+        <v>-0.03991834567480626</v>
+      </c>
+      <c r="F72">
+        <v>0.02893917668092116</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2018609958279275</v>
+        <v>-0.2034165212011778</v>
       </c>
       <c r="C73">
-        <v>0.02019281830435899</v>
+        <v>0.01599070758758659</v>
       </c>
       <c r="D73">
-        <v>0.00888721537876642</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01857822999335719</v>
+      </c>
+      <c r="E73">
+        <v>-0.06372663904509844</v>
+      </c>
+      <c r="F73">
+        <v>0.0457392792337307</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.08975758699257896</v>
+        <v>-0.09063479914145094</v>
       </c>
       <c r="C74">
-        <v>0.01519958097935455</v>
+        <v>0.01432906310034762</v>
       </c>
       <c r="D74">
-        <v>0.01295501743745936</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01669734378712784</v>
+      </c>
+      <c r="E74">
+        <v>-0.04076789808306502</v>
+      </c>
+      <c r="F74">
+        <v>0.05232725555451186</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1331794542984552</v>
+        <v>-0.1251021118536964</v>
       </c>
       <c r="C75">
-        <v>0.0333290137418789</v>
+        <v>0.03110191966357406</v>
       </c>
       <c r="D75">
-        <v>0.02376719282961065</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03028760022908407</v>
+      </c>
+      <c r="E75">
+        <v>-0.0560087178583679</v>
+      </c>
+      <c r="F75">
+        <v>0.02220770850022213</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08038387447896046</v>
+        <v>-0.09147927340629831</v>
       </c>
       <c r="C77">
-        <v>0.01506233744289759</v>
+        <v>0.009869715339380835</v>
       </c>
       <c r="D77">
-        <v>0.1137930846949119</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1172370252641489</v>
+      </c>
+      <c r="E77">
+        <v>-0.04875196922561942</v>
+      </c>
+      <c r="F77">
+        <v>0.03548880225927208</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.09916839114226286</v>
+        <v>-0.0997446897695318</v>
       </c>
       <c r="C78">
-        <v>0.04546633058459774</v>
+        <v>0.04126803133234167</v>
       </c>
       <c r="D78">
-        <v>0.1121534111706958</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1091062818117756</v>
+      </c>
+      <c r="E78">
+        <v>-0.07458480937796123</v>
+      </c>
+      <c r="F78">
+        <v>0.05483885446575815</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1679310842577257</v>
+        <v>-0.1637691234987684</v>
       </c>
       <c r="C79">
-        <v>0.02889947646786443</v>
+        <v>0.02719168777631902</v>
       </c>
       <c r="D79">
-        <v>0.007034314405293223</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01437386895428474</v>
+      </c>
+      <c r="E79">
+        <v>-0.0465237520638118</v>
+      </c>
+      <c r="F79">
+        <v>0.0134989017100926</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08088410309236786</v>
+        <v>-0.07936499111912702</v>
       </c>
       <c r="C80">
-        <v>0.00373860662367241</v>
+        <v>0.000796314280796506</v>
       </c>
       <c r="D80">
-        <v>0.05443785246797853</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05416915999347211</v>
+      </c>
+      <c r="E80">
+        <v>-0.03834367756908824</v>
+      </c>
+      <c r="F80">
+        <v>-0.0273948744656778</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1196876697573538</v>
+        <v>-0.1144387746519647</v>
       </c>
       <c r="C81">
-        <v>0.03498825490729206</v>
+        <v>0.0339878356656301</v>
       </c>
       <c r="D81">
-        <v>0.005847606411192729</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01126381993707446</v>
+      </c>
+      <c r="E81">
+        <v>-0.050911037884754</v>
+      </c>
+      <c r="F81">
+        <v>0.01830825744194367</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.165623265779456</v>
+        <v>-0.1639736973233223</v>
       </c>
       <c r="C82">
-        <v>0.02892898641605188</v>
+        <v>0.02879468664624312</v>
       </c>
       <c r="D82">
-        <v>0.006959321769068349</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.005134095155433158</v>
+      </c>
+      <c r="E82">
+        <v>-0.02504559805104744</v>
+      </c>
+      <c r="F82">
+        <v>0.08405258544592739</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.05810395047698871</v>
+        <v>-0.05306749714664617</v>
       </c>
       <c r="C83">
-        <v>0.005473569495545002</v>
+        <v>0.003374004223329005</v>
       </c>
       <c r="D83">
-        <v>0.03592519796489892</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.0383673028320879</v>
+      </c>
+      <c r="E83">
+        <v>0.002173006445830312</v>
+      </c>
+      <c r="F83">
+        <v>-0.03576194281186932</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.060825957117807</v>
+        <v>-0.05606737581300531</v>
       </c>
       <c r="C84">
-        <v>0.01431024497986695</v>
+        <v>0.01132046442640315</v>
       </c>
       <c r="D84">
-        <v>0.07529674503151111</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07693954714078163</v>
+      </c>
+      <c r="E84">
+        <v>-0.0138159538825614</v>
+      </c>
+      <c r="F84">
+        <v>0.01620977307777075</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1400753636774949</v>
+        <v>-0.135063803907226</v>
       </c>
       <c r="C85">
-        <v>0.03266285798639352</v>
+        <v>0.03167102772122806</v>
       </c>
       <c r="D85">
-        <v>0.005834022948944684</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01024905900182178</v>
+      </c>
+      <c r="E85">
+        <v>-0.03551026895006306</v>
+      </c>
+      <c r="F85">
+        <v>0.04890798209221434</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.09950430067853298</v>
+        <v>-0.0921377035216954</v>
       </c>
       <c r="C86">
-        <v>-0.001839472606065491</v>
+        <v>-0.005166842121209277</v>
       </c>
       <c r="D86">
-        <v>0.01710624216782418</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05197919560027154</v>
+      </c>
+      <c r="E86">
+        <v>-0.2399360328236789</v>
+      </c>
+      <c r="F86">
+        <v>-0.891780144427315</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.09346862565537549</v>
+        <v>-0.09051127190404794</v>
       </c>
       <c r="C87">
-        <v>0.02882982474502963</v>
+        <v>0.02098762926306953</v>
       </c>
       <c r="D87">
-        <v>0.07133376137357204</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09003476462483495</v>
+      </c>
+      <c r="E87">
+        <v>0.05909706053720244</v>
+      </c>
+      <c r="F87">
+        <v>0.04898501114939769</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06342647148651501</v>
+        <v>-0.06170706036496275</v>
       </c>
       <c r="C88">
-        <v>0.006681129045822032</v>
+        <v>0.003664478912745055</v>
       </c>
       <c r="D88">
-        <v>0.04943772804124316</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.05008553589632029</v>
+      </c>
+      <c r="E88">
+        <v>-0.02751085949910327</v>
+      </c>
+      <c r="F88">
+        <v>0.01414900302361756</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1213313812724516</v>
+        <v>-0.1298370768118778</v>
       </c>
       <c r="C89">
-        <v>0.00859125593451078</v>
+        <v>0.0161380322536197</v>
       </c>
       <c r="D89">
-        <v>-0.2379987967344557</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2399610170723432</v>
+      </c>
+      <c r="E89">
+        <v>0.08981746054170936</v>
+      </c>
+      <c r="F89">
+        <v>-0.009533617829763677</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1404197665822464</v>
+        <v>-0.154697919643438</v>
       </c>
       <c r="C90">
-        <v>0.02863036269963232</v>
+        <v>0.03749818623736225</v>
       </c>
       <c r="D90">
-        <v>-0.2632457637177326</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2659033752662064</v>
+      </c>
+      <c r="E90">
+        <v>0.1160794556735168</v>
+      </c>
+      <c r="F90">
+        <v>-0.01060341759272851</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1237943869194833</v>
+        <v>-0.1205401761089016</v>
       </c>
       <c r="C91">
-        <v>0.02329178742309074</v>
+        <v>0.02297754171529999</v>
       </c>
       <c r="D91">
-        <v>-0.02063323966197058</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01608943122704959</v>
+      </c>
+      <c r="E91">
+        <v>-0.05534264742148454</v>
+      </c>
+      <c r="F91">
+        <v>-0.001234027283430531</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1415829900782203</v>
+        <v>-0.1477507323610706</v>
       </c>
       <c r="C92">
-        <v>0.01945751422825849</v>
+        <v>0.02840063307254512</v>
       </c>
       <c r="D92">
-        <v>-0.2917035801771695</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2901655987876498</v>
+      </c>
+      <c r="E92">
+        <v>0.1029583998664033</v>
+      </c>
+      <c r="F92">
+        <v>-0.02127644665710205</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1449262924038833</v>
+        <v>-0.1572656693077648</v>
       </c>
       <c r="C93">
-        <v>0.02510120419297893</v>
+        <v>0.03270939410351664</v>
       </c>
       <c r="D93">
-        <v>-0.2607921897886899</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.260001175160353</v>
+      </c>
+      <c r="E93">
+        <v>0.07429300185450072</v>
+      </c>
+      <c r="F93">
+        <v>0.003743629840960839</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1320212886735944</v>
+        <v>-0.1241912248221212</v>
       </c>
       <c r="C94">
-        <v>0.02943912253258653</v>
+        <v>0.02668117207655026</v>
       </c>
       <c r="D94">
-        <v>0.03789008235551999</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04198715081270771</v>
+      </c>
+      <c r="E94">
+        <v>-0.05674306977891679</v>
+      </c>
+      <c r="F94">
+        <v>0.03293425999652164</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1266093688326448</v>
+        <v>-0.1293784310377831</v>
       </c>
       <c r="C95">
-        <v>0.01191238469639906</v>
+        <v>0.00663824346396177</v>
       </c>
       <c r="D95">
-        <v>0.08976381625394371</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1005703883270163</v>
+      </c>
+      <c r="E95">
+        <v>-0.06156056590228012</v>
+      </c>
+      <c r="F95">
+        <v>0.006035323963685244</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1401154163967103</v>
+        <v>-0.1304293630912339</v>
       </c>
       <c r="C96">
-        <v>-0.9844681274446779</v>
+        <v>-0.9847559429180841</v>
       </c>
       <c r="D96">
-        <v>-0.02161620990223306</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05152325783805055</v>
+      </c>
+      <c r="E96">
+        <v>-0.04790698231850875</v>
+      </c>
+      <c r="F96">
+        <v>0.04334261974954344</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1876363661078516</v>
+        <v>-0.1919366457282108</v>
       </c>
       <c r="C97">
-        <v>-0.001461945046736281</v>
+        <v>-0.001938473877442598</v>
       </c>
       <c r="D97">
-        <v>-0.02910557781910035</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.03160802816404635</v>
+      </c>
+      <c r="E97">
+        <v>-0.03913493601153285</v>
+      </c>
+      <c r="F97">
+        <v>-0.115822006867629</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1980966333615254</v>
+        <v>-0.2045500170180035</v>
       </c>
       <c r="C98">
-        <v>0.01467216019125031</v>
+        <v>0.01050255225805675</v>
       </c>
       <c r="D98">
-        <v>0.01221851541754586</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01438273514539837</v>
+      </c>
+      <c r="E98">
+        <v>0.08076092280938493</v>
+      </c>
+      <c r="F98">
+        <v>-0.09623089732050431</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05675070018395058</v>
+        <v>-0.05619280871234622</v>
       </c>
       <c r="C99">
-        <v>-0.0008845049854317305</v>
+        <v>-0.00311642823134502</v>
       </c>
       <c r="D99">
-        <v>0.03488309451104053</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.04139039344922547</v>
+      </c>
+      <c r="E99">
+        <v>-0.0270124719758317</v>
+      </c>
+      <c r="F99">
+        <v>0.002792233991829784</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1495303781640479</v>
+        <v>-0.1352787505165386</v>
       </c>
       <c r="C100">
-        <v>-0.03429852119309598</v>
+        <v>-0.04659569122712294</v>
       </c>
       <c r="D100">
-        <v>0.4052123446023281</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3649948954926582</v>
+      </c>
+      <c r="E100">
+        <v>0.8763790733144331</v>
+      </c>
+      <c r="F100">
+        <v>-0.1666374247479135</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02586589797048231</v>
+        <v>-0.02858799133523041</v>
       </c>
       <c r="C101">
-        <v>0.01005820807467391</v>
+        <v>0.009239445544500548</v>
       </c>
       <c r="D101">
-        <v>0.02940149684315701</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03007647326958645</v>
+      </c>
+      <c r="E101">
+        <v>-0.01804855690709065</v>
+      </c>
+      <c r="F101">
+        <v>-0.0148478337086207</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
